--- a/Administración del sistema APPMO-SP/1.0 Gestión de proyectos/1.6 Administración de comunicaciónes/1.6.7 Plan de comunicaciones/APPMO-SP_PCO_v1.0/APPMO-SP_PCO_v1.0.xlsx
+++ b/Administración del sistema APPMO-SP/1.0 Gestión de proyectos/1.6 Administración de comunicaciónes/1.6.7 Plan de comunicaciones/APPMO-SP_PCO_v1.0/APPMO-SP_PCO_v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANC\Desktop\SM-ROOT\Entregables\IV. Métodos de comunicación del equipo de trabajo\IV.2 Plan de Comunicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANC\Desktop\SM-ROOT\Administración del sistema APPMO-SP\1.0 Gestión de proyectos\1.6 Administración de comunicaciónes\1.6.7 Plan de comunicaciones\APPMO-SP_PCO_v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>PLAN DE COMUNICACIÓN</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Reunion de trabajo en las instalaciones de la empresa panaderia San Pedro</t>
   </si>
   <si>
-    <t>Reunion interna de SM-ROOT</t>
-  </si>
-  <si>
     <t>Servicio educativo</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Definición de roles</t>
   </si>
   <si>
-    <t xml:space="preserve">Notificacion de aceptacion del proyecto </t>
-  </si>
-  <si>
     <t>Aprovacion del project carter</t>
   </si>
   <si>
@@ -139,185 +133,188 @@
   </si>
   <si>
     <t>Entrega e instalación del producto</t>
+  </si>
+  <si>
+    <t>Para conocer los participantes del proyecto y lo que le corresponde a cada uno como responsables.</t>
+  </si>
+  <si>
+    <t>Equipo de trabajo SM-ROOT</t>
+  </si>
+  <si>
+    <t>Reunión interna de trabajo</t>
+  </si>
+  <si>
+    <t>Reunión interna de SM-ROOT</t>
+  </si>
+  <si>
+    <t>Proceso de proyecto</t>
+  </si>
+  <si>
+    <t>Para conocer si el proyecto a realizar es factible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión para determinar la factibilidadad del proyecto </t>
+  </si>
+  <si>
+    <t>APPMO-SP</t>
+  </si>
+  <si>
+    <t>Documento de contrato individual</t>
+  </si>
+  <si>
+    <t>Asesor de integradora</t>
+  </si>
+  <si>
+    <t>Proyecto y empresa</t>
+  </si>
+  <si>
+    <t>Conocer participantes y reponsabilidaes dentro del proyecto</t>
+  </si>
+  <si>
+    <t>Decidir el proyecto</t>
+  </si>
+  <si>
+    <t>Proyecto aceptado</t>
+  </si>
+  <si>
+    <t>Para definir los requerimientos para el producto y el costo del desarrollo total del producto</t>
+  </si>
+  <si>
+    <t>Para notificar que el proyecto escogido por el equipo de trabajo fue aceptado</t>
+  </si>
+  <si>
+    <t>Definir requerimiento y costos proyecto</t>
+  </si>
+  <si>
+    <t>Notificar al cliente para empezar el proyecto</t>
+  </si>
+  <si>
+    <t>Parte del proyecto donde se conocer el costo</t>
+  </si>
+  <si>
+    <t>Para aprovar el Project Charter, documento donde se describe acerca de todo el proyecto como costos, tiempos, participantes, requerimientos y la firma de aceptación del Cliente</t>
+  </si>
+  <si>
+    <t>Project Charter</t>
+  </si>
+  <si>
+    <t>Project Charter esta sujeto a probables cambios posteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para aprovar los diseños y los prototipos del producto realizados por el equipo de trabajo </t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Proceso adminsitrativo de proyecto</t>
+  </si>
+  <si>
+    <t>Proceso inicial del proyecto</t>
+  </si>
+  <si>
+    <t>Proceso para el desarrollo del producto</t>
+  </si>
+  <si>
+    <t>Cada Inicio de proyecto</t>
+  </si>
+  <si>
+    <t>Los diseños pueden ser modificados</t>
+  </si>
+  <si>
+    <t>Avances de módulos correspondientes</t>
+  </si>
+  <si>
+    <t>Para presentar al cliente los avances del producto</t>
+  </si>
+  <si>
+    <t>Cada módulo tendrá más de una revisión</t>
+  </si>
+  <si>
+    <t>Para realizar pruebas del producto con usuarios de tal manera que se pruebe todo el producto</t>
+  </si>
+  <si>
+    <t>Producto finalizado</t>
+  </si>
+  <si>
+    <t>Por cada módulo desarrollado</t>
+  </si>
+  <si>
+    <t>Por cada módulo a desarrollar</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Realizar pruebas cada semana hasta terminar</t>
+  </si>
+  <si>
+    <t>Para entregar e instalar en la Empresa Cliente el producto</t>
+  </si>
+  <si>
+    <t>Producto finalizado probado</t>
+  </si>
+  <si>
+    <t>Proceso para la finalización del desarrollo del producto</t>
+  </si>
+  <si>
+    <t>Cada fin de proyecto</t>
+  </si>
+  <si>
+    <t>Instalar el producto</t>
+  </si>
+  <si>
+    <t>Capacitacion a los usuarios</t>
+  </si>
+  <si>
+    <t>Para capacitar a los usuarios que usarán el producto</t>
+  </si>
+  <si>
+    <t>Usuarios del producto</t>
+  </si>
+  <si>
+    <t>CONTROL DE VERSIONES</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Hecha por</t>
+  </si>
+  <si>
+    <t>Revisada por</t>
+  </si>
+  <si>
+    <t>Aprobada por</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>TDCJ</t>
+  </si>
+  <si>
+    <t>FJHH</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>SIGLAS DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE LA APLICACIÓN MÓVIL DE LA PANADERÍA SAN PEDRO</t>
+  </si>
+  <si>
+    <t>Original</t>
   </si>
   <si>
     <t>Para evaluacion de la competencia
 de administrar un proyecto de
-tecnologias de la inforacion</t>
-  </si>
-  <si>
-    <t>Para conocer los participantes del proyecto y lo que le corresponde a cada uno como responsables.</t>
-  </si>
-  <si>
-    <t>Equipo de trabajo SM-ROOT</t>
-  </si>
-  <si>
-    <t>Reunión interna de trabajo</t>
-  </si>
-  <si>
-    <t>Reunión interna de SM-ROOT</t>
-  </si>
-  <si>
-    <t>Proceso de proyecto</t>
-  </si>
-  <si>
-    <t>Para conocer si el proyecto a realizar es factible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunión para determinar la factibilidadad del proyecto </t>
-  </si>
-  <si>
-    <t>APPMO-SP</t>
-  </si>
-  <si>
-    <t>Documento de contrato individual</t>
-  </si>
-  <si>
-    <t>Asesor de integradora</t>
-  </si>
-  <si>
-    <t>Proyecto y empresa</t>
-  </si>
-  <si>
-    <t>Conocer participantes y reponsabilidaes dentro del proyecto</t>
-  </si>
-  <si>
-    <t>Decidir el proyecto</t>
-  </si>
-  <si>
-    <t>Proyecto aceptado</t>
-  </si>
-  <si>
-    <t>Para definir los requerimientos para el producto y el costo del desarrollo total del producto</t>
-  </si>
-  <si>
-    <t>Para notificar que el proyecto escogido por el equipo de trabajo fue aceptado</t>
-  </si>
-  <si>
-    <t>Definir requerimiento y costos proyecto</t>
-  </si>
-  <si>
-    <t>Notificar al cliente para empezar el proyecto</t>
-  </si>
-  <si>
-    <t>Parte del proyecto donde se conocer el costo</t>
-  </si>
-  <si>
-    <t>Para aprovar el Project Charter, documento donde se describe acerca de todo el proyecto como costos, tiempos, participantes, requerimientos y la firma de aceptación del Cliente</t>
-  </si>
-  <si>
-    <t>Project Charter</t>
-  </si>
-  <si>
-    <t>Project Charter esta sujeto a probables cambios posteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para aprovar los diseños y los prototipos del producto realizados por el equipo de trabajo </t>
-  </si>
-  <si>
-    <t>Wireframes</t>
-  </si>
-  <si>
-    <t>Proceso adminsitrativo de proyecto</t>
-  </si>
-  <si>
-    <t>Proceso inicial del proyecto</t>
-  </si>
-  <si>
-    <t>Proceso para el desarrollo del producto</t>
-  </si>
-  <si>
-    <t>Cada Inicio de proyecto</t>
-  </si>
-  <si>
-    <t>Los diseños pueden ser modificados</t>
-  </si>
-  <si>
-    <t>Avances de módulos correspondientes</t>
-  </si>
-  <si>
-    <t>Para presentar al cliente los avances del producto</t>
-  </si>
-  <si>
-    <t>Cada módulo tendrá más de una revisión</t>
-  </si>
-  <si>
-    <t>Para realizar pruebas del producto con usuarios de tal manera que se pruebe todo el producto</t>
-  </si>
-  <si>
-    <t>Producto finalizado</t>
-  </si>
-  <si>
-    <t>Por cada módulo desarrollado</t>
-  </si>
-  <si>
-    <t>Por cada módulo a desarrollar</t>
-  </si>
-  <si>
-    <t>Semanal</t>
-  </si>
-  <si>
-    <t>Realizar pruebas cada semana hasta terminar</t>
-  </si>
-  <si>
-    <t>Para entregar e instalar en la Empresa Cliente el producto</t>
-  </si>
-  <si>
-    <t>Producto finalizado probado</t>
-  </si>
-  <si>
-    <t>Proceso para la finalización del desarrollo del producto</t>
-  </si>
-  <si>
-    <t>Cada fin de proyecto</t>
-  </si>
-  <si>
-    <t>Instalar el producto</t>
-  </si>
-  <si>
-    <t>Capacitacion a los usuarios</t>
-  </si>
-  <si>
-    <t>Para capacitar a los usuarios que usarán el producto</t>
-  </si>
-  <si>
-    <t>Usuarios del producto</t>
-  </si>
-  <si>
-    <t>CONTROL DE VERSIONES</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>Hecha por</t>
-  </si>
-  <si>
-    <t>Revisada por</t>
-  </si>
-  <si>
-    <t>Aprobada por</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>TDCJ</t>
-  </si>
-  <si>
-    <t>FJHH</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PROYECTO</t>
-  </si>
-  <si>
-    <t>SIGLAS DEL PROYECTO</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN DE LA APLICACIÓN MÓVIL DE LA PANADERÍA SAN PEDRO</t>
-  </si>
-  <si>
-    <t>Original</t>
+tecnologias de la información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificación de aceptacion del proyecto </t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,42 +507,43 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L28"/>
+  <dimension ref="B3:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -914,124 +912,124 @@
     <col min="10" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="F5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43487</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="17">
-        <v>43487</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="12" spans="2:12" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>2</v>
@@ -1040,17 +1038,18 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="20" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="20" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1095,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>24</v>
@@ -1104,22 +1103,22 @@
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="J18" s="8">
         <v>43472</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="79.2" x14ac:dyDescent="0.25">
@@ -1127,34 +1126,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="8">
         <v>43472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -1162,34 +1161,34 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="8">
         <v>43475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -1197,10 +1196,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>24</v>
@@ -1209,22 +1208,22 @@
         <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="8">
         <v>43477</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="66" x14ac:dyDescent="0.25">
@@ -1232,10 +1231,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>24</v>
@@ -1244,22 +1243,22 @@
         <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="8">
         <v>43481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="105.6" x14ac:dyDescent="0.25">
@@ -1267,10 +1266,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>24</v>
@@ -1279,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="8">
         <v>43482</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -1302,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>24</v>
@@ -1314,22 +1313,22 @@
         <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="I24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="8">
         <v>43494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.25">
@@ -1337,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>24</v>
@@ -1349,22 +1348,22 @@
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="8">
         <v>43500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="79.2" x14ac:dyDescent="0.25">
@@ -1372,34 +1371,34 @@
         <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="8">
         <v>43642</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -1407,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
@@ -1419,22 +1418,22 @@
         <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27" s="8">
         <v>43686</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -1442,31 +1441,31 @@
         <v>11</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28" s="8">
         <v>43686</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -1514,13 +1513,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="5" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
